--- a/chapters/ch10-LandUseUrbanPlanning/datasets/Carbon_Storage_World.xlsx
+++ b/chapters/ch10-LandUseUrbanPlanning/datasets/Carbon_Storage_World.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch10-LandUseUrbanPlanning/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC426F4-1667-1D45-8E23-D68DEB759AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647C3E09-B284-A249-82B3-8D63C47AE519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28000" windowHeight="21680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28000" windowHeight="21680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data to plot" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -212,10 +214,10 @@
     <t>Area (million km2)</t>
   </si>
   <si>
-    <t>Temperate forest</t>
-  </si>
-  <si>
     <t>Boreal forest</t>
+  </si>
+  <si>
+    <t>Temp. forest</t>
   </si>
 </sst>
 </file>
@@ -689,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76173103-A8D4-48B1-96E8-789AD0CEB73C}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -752,7 +754,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>Sheet1!A3</f>
-        <v>Temperate forest</v>
+        <v>Temp. forest</v>
       </c>
       <c r="B3">
         <f>Sheet1!B3</f>
@@ -966,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1042,7 +1044,7 @@
     </row>
     <row r="3" spans="1:12" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3">
         <v>10.4</v>
@@ -1072,7 +1074,7 @@
     </row>
     <row r="4" spans="1:12" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3">
         <v>13.7</v>
